--- a/task/data/TestData.xlsx
+++ b/task/data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11820" windowWidth="16425"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16425" windowHeight="11820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Login1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -478,212 +478,280 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="22" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -956,13 +1024,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="27.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="10.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="7.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="21.25"/>
+    <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="7.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="21.25" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1340,7 +1408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1358,13 +1426,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="27.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="10.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="7.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="21.25"/>
+    <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="7.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="21.25" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1478,7 +1546,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1496,13 +1564,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="27.5"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="10.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="12.625"/>
-    <col customWidth="1" max="6" min="6" style="1" width="7.375"/>
-    <col customWidth="1" max="7" min="7" style="1" width="21.25"/>
+    <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="27.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
+    <col width="10.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="7.375" customWidth="1" style="1" min="6" max="6"/>
+    <col width="21.25" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1583,6 +1651,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/task/data/TestData.xlsx
+++ b/task/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="16425" windowHeight="11820" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,12 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <name val="宋体"/>
@@ -48,8 +43,77 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -62,8 +126,25 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,67 +157,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -146,33 +166,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,21 +371,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,6 +394,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,11 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,148 +476,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,7 +1014,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,7 +1416,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1506,7 +1501,7 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>ppp</t>
+          <t>qqq</t>
         </is>
       </c>
     </row>

--- a/task/data/TestData.xlsx
+++ b/task/data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Login1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Login2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -29,6 +29,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -36,7 +43,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,6 +74,83 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -70,106 +170,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,45 +371,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,10 +391,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -457,8 +416,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,8 +436,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,145 +479,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1261,7 +1261,7 @@
         <v>111111</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>990204</v>
+        <v>990205</v>
       </c>
     </row>
     <row r="8">
@@ -1415,7 +1415,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/task/data/TestData.xlsx
+++ b/task/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="24225" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,6 +29,43 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -36,14 +73,47 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -57,6 +127,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
@@ -65,15 +143,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -88,85 +159,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,11 +374,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -409,41 +415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,6 +447,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -479,10 +479,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,133 +491,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>None</t>
         </is>
       </c>
       <c r="F2" s="0" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>None</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">

--- a/task/data/TestData.xlsx
+++ b/task/data/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12690" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Login" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,6 +36,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -43,8 +58,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -59,38 +104,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -107,14 +122,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +143,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -151,15 +159,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,61 +389,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,8 +416,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,153 +479,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,10 +1018,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1303,32 +1310,29 @@
           <t>Login_008</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>点击左上角退出</t>
-        </is>
+      <c r="B9" s="0">
+        <f>"登录-"&amp;D9</f>
+        <v/>
       </c>
       <c r="C9" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>北斗星</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>Q1223871051</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>111111</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>不在交易登录页面了</t>
+          <t>自选</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1342,29 @@
           <t>Login_009</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>点击账号右下角三角</t>
-        </is>
+      <c r="B10" s="0">
+        <f>"登录-"&amp;D10</f>
+        <v/>
       </c>
       <c r="C10" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>北斗星</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
+          <t>Q1018926740</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>111111</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>弹出已保存的账号</t>
+          <t>自选</t>
         </is>
       </c>
     </row>
@@ -1373,34 +1374,636 @@
           <t>Login_010</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>点击密码输入栏</t>
-        </is>
+      <c r="B11" s="0">
+        <f>"登录-"&amp;D11</f>
+        <v/>
       </c>
       <c r="C11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>北斗星</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>JL</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>111111</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Login_011</t>
+        </is>
+      </c>
+      <c r="B12" s="0">
+        <f>"登录-"&amp;D12</f>
+        <v/>
+      </c>
+      <c r="C12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>北斗星</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>111111</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Login_012</t>
+        </is>
+      </c>
+      <c r="B13" s="0">
+        <f>"登录-"&amp;D13</f>
+        <v/>
+      </c>
+      <c r="C13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>北斗星</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>WAYNEMNQ</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>111111</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Login_013</t>
+        </is>
+      </c>
+      <c r="B14" s="0">
+        <f>"登录-"&amp;D14</f>
+        <v/>
+      </c>
+      <c r="C14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>启明星</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Q1223871051</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>111111</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Login_014</t>
+        </is>
+      </c>
+      <c r="B15" s="0">
+        <f>"登录-"&amp;D15</f>
+        <v/>
+      </c>
+      <c r="C15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>启明星</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Q1018926740</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>111111</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Login_015</t>
+        </is>
+      </c>
+      <c r="B16" s="0">
+        <f>"登录-"&amp;D16</f>
+        <v/>
+      </c>
+      <c r="C16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>启明星</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Q875504663</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Login_016</t>
+        </is>
+      </c>
+      <c r="B17" s="0">
+        <f>"登录-"&amp;D17</f>
+        <v/>
+      </c>
+      <c r="C17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>114762</v>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>Es123456</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Login_017</t>
+        </is>
+      </c>
+      <c r="B18" s="0">
+        <f>"登录-"&amp;D18</f>
+        <v/>
+      </c>
+      <c r="C18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>50005596</v>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>w12345678</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Login_018</t>
+        </is>
+      </c>
+      <c r="B19" s="0">
+        <f>"登录-"&amp;D19</f>
+        <v/>
+      </c>
+      <c r="C19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>1QAZ2wsx</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Login_019</t>
+        </is>
+      </c>
+      <c r="B20" s="0">
+        <f>"登录-"&amp;D20</f>
+        <v/>
+      </c>
+      <c r="C20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>8388</v>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>1QAZ2wsx</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Login_020</t>
+        </is>
+      </c>
+      <c r="B21" s="0">
+        <f>"登录-"&amp;D21</f>
+        <v/>
+      </c>
+      <c r="C21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>11210032</v>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>1QAZ2wsx</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Login_021</t>
+        </is>
+      </c>
+      <c r="B22" s="0">
+        <f>"登录-"&amp;D22</f>
+        <v/>
+      </c>
+      <c r="C22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4431</v>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>1QAZ2wsx</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Login_022</t>
+        </is>
+      </c>
+      <c r="B23" s="0">
+        <f>"登录-"&amp;D23</f>
+        <v/>
+      </c>
+      <c r="C23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>114773</v>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>es123456</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Login_023</t>
+        </is>
+      </c>
+      <c r="B24" s="0">
+        <f>"登录-"&amp;D24</f>
+        <v/>
+      </c>
+      <c r="C24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>金仕达Kst</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>70044544</v>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>Xds123</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Login_024</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <f>"登录-"&amp;D25</f>
+        <v/>
+      </c>
+      <c r="C25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10102289</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>999999</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Login_025</t>
+        </is>
+      </c>
+      <c r="B26" s="0">
+        <f>"登录-"&amp;D26</f>
+        <v/>
+      </c>
+      <c r="C26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10102289</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>999999</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Login_026</t>
+        </is>
+      </c>
+      <c r="B27" s="0">
+        <f>"登录-"&amp;D27</f>
+        <v/>
+      </c>
+      <c r="C27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>10102289</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>999999</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Login_027</t>
+        </is>
+      </c>
+      <c r="B28" s="0">
+        <f>"登录-"&amp;D28</f>
+        <v/>
+      </c>
+      <c r="C28" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>弹出“易星安全键盘”</t>
-        </is>
-      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>极星仿真</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>17512541270</v>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Login_028</t>
+        </is>
+      </c>
+      <c r="B29" s="0">
+        <f>"登录-"&amp;D29</f>
+        <v/>
+      </c>
+      <c r="C29" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>极星仿真</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>15021552517</v>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Login_029</t>
+        </is>
+      </c>
+      <c r="B30" s="0">
+        <f>"登录-"&amp;D30</f>
+        <v/>
+      </c>
+      <c r="C30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>极星仿真</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>17665388803</v>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1413,21 +2016,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
     <col width="27.5" customWidth="1" style="1" min="2" max="2"/>
     <col width="6.375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="10.375" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="7.375" customWidth="1" style="1" min="6" max="6"/>
-    <col width="21.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="28.75" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.75" customWidth="1" style="1" min="5" max="5"/>
+    <col width="12.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="21.25" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1453,20 +2058,30 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>informal</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
           <t>acc</t>
         </is>
       </c>
-      <c r="F1" s="0" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="G1" s="0" t="inlineStr">
+      <c r="I1" s="0" t="inlineStr">
         <is>
           <t>checkpoint1</t>
         </is>
       </c>
-      <c r="H1" s="0" t="inlineStr">
+      <c r="J1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1475,68 +2090,384 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Login_003</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>账号密码匹配</t>
-        </is>
+          <t>Login_001</t>
+        </is>
+      </c>
+      <c r="B2" s="0">
+        <f>"登录-"&amp;D2</f>
+        <v/>
       </c>
       <c r="C2" s="0" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>启明星</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>Q1223871051</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="n">
+          <t>新永安期货 北斗星（仿真）</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>WAYNEMNQ</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>111111</v>
       </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>qqq</t>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Login_011</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>点击左上角退出</t>
-        </is>
+          <t>Login_002</t>
+        </is>
+      </c>
+      <c r="B3" s="0">
+        <f>"登录-"&amp;D3</f>
+        <v/>
       </c>
       <c r="C3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>中信建投</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>50005596</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>w12345678</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Login_003</t>
+        </is>
+      </c>
+      <c r="B4" s="0">
+        <f>"登录-"&amp;D4</f>
+        <v/>
+      </c>
+      <c r="C4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>兴证期货 期货仿真交易中心</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>00000302</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1QAZ2wsx</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Login_004</t>
+        </is>
+      </c>
+      <c r="B5" s="0">
+        <f>"登录-"&amp;D5</f>
+        <v/>
+      </c>
+      <c r="C5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>上期技术 CTP（v3仿真）</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>114773</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>es123456</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Login_005</t>
+        </is>
+      </c>
+      <c r="B6" s="0">
+        <f>"登录-"&amp;D6</f>
+        <v/>
+      </c>
+      <c r="C6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>鑫鼎盛 金仕达(v3上海测试)</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>070044544</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Xds123</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Login_006</t>
+        </is>
+      </c>
+      <c r="B7" s="0">
+        <f>"登录-"&amp;D7</f>
+        <v/>
+      </c>
+      <c r="C7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>信达期货 恒生（仿真）</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>10102289</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>999999</v>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Login_007</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <f>"登录-"&amp;D8</f>
+        <v/>
+      </c>
+      <c r="C8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>信达期货 CTP（仿真）</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>10102289</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>999999</v>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Login_008</t>
+        </is>
+      </c>
+      <c r="B9" s="0">
+        <f>"登录-"&amp;D9</f>
+        <v/>
+      </c>
+      <c r="C9" s="0" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>不在交易登录页面了</t>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>易盛信息 极星仿真</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>17512541270</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Login_009</t>
+        </is>
+      </c>
+      <c r="B10" s="0">
+        <f>"登录-"&amp;D10</f>
+        <v/>
+      </c>
+      <c r="C10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>易盛信息 极星仿真</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>15021552517</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Login_010</t>
+        </is>
+      </c>
+      <c r="B11" s="0">
+        <f>"登录-"&amp;D11</f>
+        <v/>
+      </c>
+      <c r="C11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>易盛信息 极星仿真</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>17665388803</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Es123456!</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>自选</t>
         </is>
       </c>
     </row>
